--- a/middle-to-gun/Excel/Morph_变身表.xlsx
+++ b/middle-to-gun/Excel/Morph_变身表.xlsx
@@ -1242,7 +1242,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="str">
-        <v>36F3181B44DDA6558C3822AF5D478BDF</v>
+        <v>C82B989B44B0F5C2593FD4BF6885CF5D</v>
       </c>
       <c r="C49" s="1" t="str">
         <v>0|0|0</v>
@@ -1259,7 +1259,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="1" t="str">
-        <v>C82B989B44B0F5C2593FD4BF6885CF5D</v>
+        <v>7F28155F4EEFF2E1B33DDDA7EEFD4AD2</v>
       </c>
       <c r="C50" s="1" t="str">
         <v>0|0|0</v>
@@ -1276,7 +1276,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="1" t="str">
-        <v>7F28155F4EEFF2E1B33DDDA7EEFD4AD2</v>
+        <v>D85C27AC4F8BB66FB668EABFE2FF9BD7</v>
       </c>
       <c r="C51" s="1" t="str">
         <v>0|0|0</v>
@@ -1292,8 +1292,8 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
-      <c r="B52" s="1" t="str">
-        <v>D85C27AC4F8BB66FB668EABFE2FF9BD7</v>
+      <c r="B52" t="str">
+        <v>3688AC4D45D5EEC1E0D2279197E330BB</v>
       </c>
       <c r="C52" s="1" t="str">
         <v>0|0|0</v>
@@ -1309,8 +1309,8 @@
       <c r="A53" s="1">
         <v>49</v>
       </c>
-      <c r="B53" t="str">
-        <v>3688AC4D45D5EEC1E0D2279197E330BB</v>
+      <c r="B53" s="1" t="str">
+        <v>9523FD8F4D5E4060F39DE59DC439A055</v>
       </c>
       <c r="C53" s="1" t="str">
         <v>0|0|0</v>
@@ -1326,8 +1326,8 @@
       <c r="A54" s="1">
         <v>50</v>
       </c>
-      <c r="B54" s="1" t="str">
-        <v>9523FD8F4D5E4060F39DE59DC439A055</v>
+      <c r="B54" t="str">
+        <v>273117F54B2A12D4B6D87584E242A9A4</v>
       </c>
       <c r="C54" s="1" t="str">
         <v>0|0|0</v>
@@ -1344,7 +1344,7 @@
         <v>51</v>
       </c>
       <c r="B55" t="str">
-        <v>273117F54B2A12D4B6D87584E242A9A4</v>
+        <v>30DB36F5483E1EED93827DBF845B2E0C</v>
       </c>
       <c r="C55" s="1" t="str">
         <v>0|0|0</v>
@@ -1361,7 +1361,7 @@
         <v>52</v>
       </c>
       <c r="B56" t="str">
-        <v>30DB36F5483E1EED93827DBF845B2E0C</v>
+        <v>F58F40BE47A971AF45C94F8E774FA959</v>
       </c>
       <c r="C56" s="1" t="str">
         <v>0|0|0</v>
@@ -1378,7 +1378,7 @@
         <v>53</v>
       </c>
       <c r="B57" t="str">
-        <v>F58F40BE47A971AF45C94F8E774FA959</v>
+        <v>A872C382435C967D31F639BC792A8C7C</v>
       </c>
       <c r="C57" s="1" t="str">
         <v>0|0|0</v>
@@ -1395,7 +1395,7 @@
         <v>54</v>
       </c>
       <c r="B58" t="str">
-        <v>A872C382435C967D31F639BC792A8C7C</v>
+        <v>6FD710524711C2FB675409822F20C84C</v>
       </c>
       <c r="C58" s="1" t="str">
         <v>0|0|0</v>
@@ -1412,7 +1412,7 @@
         <v>55</v>
       </c>
       <c r="B59" t="str">
-        <v>6FD710524711C2FB675409822F20C84C</v>
+        <v>D7FED734443084BD9CC322B2A02A8195</v>
       </c>
       <c r="C59" s="1" t="str">
         <v>0|0|0</v>
@@ -1429,7 +1429,7 @@
         <v>56</v>
       </c>
       <c r="B60" t="str">
-        <v>D7FED734443084BD9CC322B2A02A8195</v>
+        <v>8421359249F0AE6538674FADC6196BCC</v>
       </c>
       <c r="C60" s="1" t="str">
         <v>0|0|0</v>
@@ -1446,7 +1446,7 @@
         <v>57</v>
       </c>
       <c r="B61" t="str">
-        <v>8421359249F0AE6538674FADC6196BCC</v>
+        <v>CEE419F24C4BD425B1221DBABC019925</v>
       </c>
       <c r="C61" s="1" t="str">
         <v>0|0|0</v>
@@ -1463,30 +1463,30 @@
         <v>58</v>
       </c>
       <c r="B62" t="str">
-        <v>CEE419F24C4BD425B1221DBABC019925</v>
+        <v>5E2CA8A84F3B2A39B092739D18611B23</v>
       </c>
       <c r="C62" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="D62" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="E62" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="63">
+    <row r="63">
       <c r="A63" s="1">
         <v>59</v>
       </c>
       <c r="B63" t="str">
-        <v>5E2CA8A84F3B2A39B092739D18611B23</v>
+        <v>45CC801843BCB421039107B2112267A6</v>
       </c>
       <c r="C63" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="D63" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="E63" s="1" t="str">
         <v>1|1|1</v>
@@ -1497,13 +1497,13 @@
         <v>60</v>
       </c>
       <c r="B64" t="str">
-        <v>45CC801843BCB421039107B2112267A6</v>
+        <v>C9292BC84BD8123269224ABBA8B007CB</v>
       </c>
       <c r="C64" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="D64" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="E64" s="1" t="str">
         <v>1|1|1</v>
@@ -1514,13 +1514,13 @@
         <v>61</v>
       </c>
       <c r="B65" t="str">
-        <v>C9292BC84BD8123269224ABBA8B007CB</v>
+        <v>D0C568E94DC2EAAADE0303AC1A079AB8</v>
       </c>
       <c r="C65" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="D65" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="E65" s="1" t="str">
         <v>1|1|1</v>
@@ -1531,51 +1531,29 @@
         <v>62</v>
       </c>
       <c r="B66" t="str">
-        <v>DFD6380A41D35DD1BCA649AEF817219F</v>
+        <v>9369090F4F800E92F623348B8D94270A</v>
       </c>
       <c r="C66" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="D66" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="E66" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
-        <v>63</v>
-      </c>
-      <c r="B67" t="str">
-        <v>D0C568E94DC2EAAADE0303AC1A079AB8</v>
-      </c>
-      <c r="C67" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D67" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E67" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
     </row>
     <row r="68">
-      <c r="A68" s="1">
-        <v>64</v>
-      </c>
-      <c r="B68" t="str">
-        <v>9369090F4F800E92F623348B8D94270A</v>
-      </c>
-      <c r="C68" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D68" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E68" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
@@ -2735,18 +2713,6 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262">
-      <c r="A262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/middle-to-gun/Excel/Morph_变身表.xlsx
+++ b/middle-to-gun/Excel/Morph_变身表.xlsx
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="str">
-        <v>644370734B58F8B04E7A2D8A43FCD3EE</v>
+        <v>6606E9CA459370CEDB5AA9B9F94177E4</v>
       </c>
       <c r="C5" s="2" t="str">
         <v>0|0|0</v>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="str">
-        <v>891797F24E233CAF385DACACC64680F0</v>
+        <v>DC0E753F499BCC930DC747AFD76F70C1</v>
       </c>
       <c r="C6" s="2" t="str">
         <v>0|0|0</v>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="str">
-        <v>4A56A781407E60DD50D3AA99D081CA1C</v>
+        <v>D416409A438CCC6A7C174FAD5D463712</v>
       </c>
       <c r="C7" s="2" t="str">
         <v>0|0|0</v>
@@ -673,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="str">
-        <v>6659C6AD46CD78FFEA5EFB91C134D1CC</v>
+        <v>8E9F93FD4C3DBCF47DF01EB452DB5E76</v>
       </c>
       <c r="C8" s="2" t="str">
         <v>0|0|0</v>
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="str">
-        <v>A6F38CEB4F04B0B1B7D9928279F28DA3</v>
+        <v>E682F4CE49668799A7244BA29F40F2D9</v>
       </c>
       <c r="C9" s="2" t="str">
         <v>0|0|0</v>
@@ -737,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="str">
-        <v>EE34E6A943212AD3B03574AA0679AC3B</v>
+        <v>761D83C24D27F61067AD668129FDEEF3</v>
       </c>
       <c r="C10" s="2" t="str">
         <v>0|0|0</v>
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="str">
-        <v>1945CD094B57EAAF4C14D0A15893D227</v>
+        <v>D7D8617F457BD5205CA83CAA42000C5E</v>
       </c>
       <c r="C11" s="2" t="str">
         <v>0|0|0</v>
@@ -801,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="str">
-        <v>BEEBC0634AE7923C680E3A92EBC84C5A</v>
+        <v>7AE9CBE7434E00C7708E39A6D9E39F6D</v>
       </c>
       <c r="C12" s="2" t="str">
         <v>0|0|0</v>
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="str">
-        <v>5DF5E0DE47734645DC1D33BF18048033</v>
+        <v>219B75144FB2E9D76A31C6BAA2470488</v>
       </c>
       <c r="C13" s="2" t="str">
         <v>0|0|0</v>
@@ -865,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="str">
-        <v>9E4458E04AAD4FD7DBAF39AC2FF67EB1</v>
+        <v>7E7CC7D6441B1E41091821900ED6134B</v>
       </c>
       <c r="C14" s="2" t="str">
         <v>0|0|0</v>
@@ -897,7 +897,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="str">
-        <v>986B60A743C3FE5D8CF619A6AC385D61</v>
+        <v>E3234A6A4E922744F16A729DFD451EBD</v>
       </c>
       <c r="C15" s="2" t="str">
         <v>0|0|0</v>
@@ -929,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="str">
-        <v>0927EBE64D3FD31A9A954A9850C84B20</v>
+        <v>ED666069484255FAF07D55B17734D092</v>
       </c>
       <c r="C16" s="2" t="str">
         <v>0|0|0</v>
@@ -961,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="str">
-        <v>A82AF76F45A266FC48F22BA634E29B16</v>
+        <v>83042B80493086280CFF2C9E80F4F577</v>
       </c>
       <c r="C17" s="2" t="str">
         <v>0|0|0</v>
@@ -993,7 +993,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="str">
-        <v>4EC73D3D45F2685BF43F51B6F2B93F44</v>
+        <v>52D3A62B4D5D945B57960CB495A43D71</v>
       </c>
       <c r="C18" s="2" t="str">
         <v>0|0|0</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="str">
-        <v>66C48DC340E357CEB5D8A8827A6AE050</v>
+        <v>6FEBED7D4B184929BFE16E9F0BB5D9E3</v>
       </c>
       <c r="C19" s="2" t="str">
         <v>0|0|0</v>
@@ -1057,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="str">
-        <v>94A4DABF454716C9B8432DB68087A1FA</v>
+        <v>7BBD98A04D91A3F940D3A49ED6818B92</v>
       </c>
       <c r="C20" s="2" t="str">
         <v>0|0|0</v>
@@ -1089,7 +1089,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="str">
-        <v>8174C2EB4A1246B6E90CC68E04E12B1D</v>
+        <v>6535EB66413F00B16826A0AC1980769A</v>
       </c>
       <c r="C21" s="2" t="str">
         <v>0|0|0</v>
@@ -1121,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="str">
-        <v>6FC1EA7F4F4E9FDDA7E148893600295C</v>
+        <v>D659A91548B65C54CB0E65B47290E062</v>
       </c>
       <c r="C22" s="2" t="str">
         <v>0|0|0</v>
@@ -1153,7 +1153,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="str">
-        <v>4F1E9ABA465877411AA3388818881456</v>
+        <v>EEEDD49346C2A9CB90C3ABA073D1B991</v>
       </c>
       <c r="C23" s="2" t="str">
         <v>0|0|0</v>
@@ -1185,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="str">
-        <v>F0AB725F44F0C3359AE191A5CC701E0A</v>
+        <v>C23568A14376A01BD8479ABD878D2C91</v>
       </c>
       <c r="C24" s="2" t="str">
         <v>0|0|0</v>
@@ -1217,7 +1217,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="str">
-        <v>F1CAAE1B4389B691F9760E916FABE8FB</v>
+        <v>888FEA2A4EC7235D682647AFBBAC24C2</v>
       </c>
       <c r="C25" s="2" t="str">
         <v>0|0|0</v>
@@ -1249,7 +1249,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="str">
-        <v>5364B4264285BB3A6183499F05413A8E</v>
+        <v>2AAB884E4DD4E4392B7878A42E9437A0</v>
       </c>
       <c r="C26" s="2" t="str">
         <v>0|0|0</v>
@@ -1281,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="str">
-        <v>A695B5EC4AB1AD0456E566A8F087E2AC</v>
+        <v>EC79BB2D40D5AFE6FE12E0B716F2E22A</v>
       </c>
       <c r="C27" s="2" t="str">
         <v>0|0|0</v>
@@ -1313,7 +1313,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="str">
-        <v>A8EC5D6A46D7D11B4F8702995A26A987</v>
+        <v>30E38B6843487905EAB2F89E33D98D75</v>
       </c>
       <c r="C28" s="2" t="str">
         <v>0|0|0</v>
@@ -1345,7 +1345,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="str">
-        <v>C476BA6F4EAC4F200E4F06A79477C0E0</v>
+        <v>6F639C5F4651C6E6CEA458A02AFFCA7D</v>
       </c>
       <c r="C29" s="2" t="str">
         <v>0|0|0</v>
@@ -1377,7 +1377,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="str">
-        <v>0DA39A7848EC2217D777F5B4642E9A3C</v>
+        <v>FF9FE10E4BEDC0AA634459809A6C3DBF</v>
       </c>
       <c r="C30" s="2" t="str">
         <v>0|0|0</v>
@@ -1409,7 +1409,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="str">
-        <v>934EABE24FA6BB77E26D009DEF94388A</v>
+        <v>234B26644A3BB4542D3C72909ECF2EE9</v>
       </c>
       <c r="C31" s="2" t="str">
         <v>0|0|0</v>
@@ -1441,7 +1441,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="str">
-        <v>592B8457417F36B609DC5A8B1273F8AE</v>
+        <v>7A35CE034F09DF7B9FBE6E968CBA8944</v>
       </c>
       <c r="C32" s="2" t="str">
         <v>0|0|0</v>
@@ -1473,7 +1473,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="str">
-        <v>4ECCECDA4FDB7038138AE9AD613F8A26</v>
+        <v>131826C8410204FDF3D88DA47B1126E2</v>
       </c>
       <c r="C33" s="2" t="str">
         <v>0|0|0</v>
@@ -1505,7 +1505,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="str">
-        <v>7FED350342ADACEE9D0799A445261AE9</v>
+        <v>7231BBC740DFD429472C648B78C5DF54</v>
       </c>
       <c r="C34" s="2" t="str">
         <v>0|0|0</v>
@@ -1537,7 +1537,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="str">
-        <v>0B2DA68345CECCD3596628BFB64D539E</v>
+        <v>9E380D6546A67E2A8F364798FF04C895</v>
       </c>
       <c r="C35" s="2" t="str">
         <v>0|0|0</v>
@@ -1569,7 +1569,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="str">
-        <v>6F4BEDBD4203189019C3E78A9F0231E4</v>
+        <v>C0872F864E30999F78F5DEB84429DC3C</v>
       </c>
       <c r="C36" s="2" t="str">
         <v>0|0|0</v>
@@ -1601,7 +1601,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="str">
-        <v>E05FB1BC44DACF90C1ACE7A6523916E9</v>
+        <v>9CAECE9742D9DAAE7F72589DA1FB6355</v>
       </c>
       <c r="C37" s="2" t="str">
         <v>0|0|0</v>
@@ -1633,7 +1633,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="str">
-        <v>D341C3FE42F26ECE9A939399EACE9844</v>
+        <v>E8642E98490AD89BB5ADEB8D87AD3D5B</v>
       </c>
       <c r="C38" s="2" t="str">
         <v>0|0|0</v>
@@ -1661,21 +1661,11 @@
       <c r="T38" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="39">
-      <c r="A39" s="2">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2" t="str">
-        <v>58F8D894443E7E24E472C5BEBD2CA30E</v>
-      </c>
-      <c r="C39" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D39" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E39" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1693,21 +1683,11 @@
       <c r="T39" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="40">
-      <c r="A40" s="2">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2" t="str">
-        <v>488F7D57472DA0752885E894384B72D0</v>
-      </c>
-      <c r="C40" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D40" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E40" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1725,21 +1705,11 @@
       <c r="T40" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="41">
-      <c r="A41" s="2">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2" t="str">
-        <v>582DB6CC4247090BE83235B4A1CA59A7</v>
-      </c>
-      <c r="C41" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D41" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E41" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1757,21 +1727,11 @@
       <c r="T41" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="42">
-      <c r="A42" s="2">
-        <v>38</v>
-      </c>
-      <c r="B42" s="2" t="str">
-        <v>AFDED9BE47FBA1463542EBBFEF347A40</v>
-      </c>
-      <c r="C42" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D42" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E42" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1789,21 +1749,11 @@
       <c r="T42" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="43">
-      <c r="A43" s="2">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2" t="str">
-        <v>E84D50A54E582F53DE60F08BB0E0C7F1</v>
-      </c>
-      <c r="C43" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E43" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1821,21 +1771,11 @@
       <c r="T43" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="44">
-      <c r="A44" s="2">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2" t="str">
-        <v>9F736430461652281B89D6AF6B2EB31B</v>
-      </c>
-      <c r="C44" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D44" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E44" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1853,21 +1793,11 @@
       <c r="T44" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="45">
-      <c r="A45" s="2">
-        <v>41</v>
-      </c>
-      <c r="B45" s="2" t="str">
-        <v>55FA55D14C4BE46A2174CDB864D6C3D8</v>
-      </c>
-      <c r="C45" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D45" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E45" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1885,21 +1815,11 @@
       <c r="T45" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="46">
-      <c r="A46" s="2">
-        <v>42</v>
-      </c>
-      <c r="B46" s="2" t="str">
-        <v>57EF1B594111E0C566DF1A92ECB9A955</v>
-      </c>
-      <c r="C46" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D46" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E46" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1917,21 +1837,11 @@
       <c r="T46" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="47">
-      <c r="A47" s="2">
-        <v>43</v>
-      </c>
-      <c r="B47" s="2" t="str">
-        <v>0267ED4F447B0987C109C79DB9B694DB</v>
-      </c>
-      <c r="C47" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D47" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E47" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1949,21 +1859,11 @@
       <c r="T47" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="48">
-      <c r="A48" s="2">
-        <v>44</v>
-      </c>
-      <c r="B48" s="2" t="str">
-        <v>FF6419E44D7B3CDB1EFDB6AD9C9D509B</v>
-      </c>
-      <c r="C48" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D48" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E48" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1981,21 +1881,11 @@
       <c r="T48" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="49">
-      <c r="A49" s="2">
-        <v>45</v>
-      </c>
-      <c r="B49" s="2" t="str">
-        <v>D045390F4D2D6D600C7CAEA47C8DBC4E</v>
-      </c>
-      <c r="C49" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D49" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E49" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2013,21 +1903,11 @@
       <c r="T49" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="50">
-      <c r="A50" s="2">
-        <v>46</v>
-      </c>
-      <c r="B50" s="2" t="str">
-        <v>BA4DAD794B1476B537B8D692C169DC49</v>
-      </c>
-      <c r="C50" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D50" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E50" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2045,21 +1925,11 @@
       <c r="T50" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="51">
-      <c r="A51" s="2">
-        <v>47</v>
-      </c>
-      <c r="B51" s="2" t="str">
-        <v>3C25623141F0BB7A80F4DC9FE57C933D</v>
-      </c>
-      <c r="C51" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D51" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E51" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2077,21 +1947,11 @@
       <c r="T51" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="52">
-      <c r="A52" s="2">
-        <v>48</v>
-      </c>
-      <c r="B52" s="1" t="str">
-        <v>31839B5144E8030D2DEC9B9212A15BE7</v>
-      </c>
-      <c r="C52" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D52" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E52" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2109,21 +1969,11 @@
       <c r="T52" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="53">
-      <c r="A53" s="2">
-        <v>49</v>
-      </c>
-      <c r="B53" s="2" t="str">
-        <v>399F36764233BCFF94E7BBA86FC4BC36</v>
-      </c>
-      <c r="C53" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D53" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E53" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2141,21 +1991,11 @@
       <c r="T53" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="54">
-      <c r="A54" s="2">
-        <v>50</v>
-      </c>
-      <c r="B54" s="1" t="str">
-        <v>DEB37F6041D7A0999483FE970120499E</v>
-      </c>
-      <c r="C54" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D54" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E54" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2173,21 +2013,11 @@
       <c r="T54" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="55">
-      <c r="A55" s="2">
-        <v>51</v>
-      </c>
-      <c r="B55" s="1" t="str">
-        <v>19D037BD472BA399F8B80DBD9226E058</v>
-      </c>
-      <c r="C55" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D55" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E55" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2205,21 +2035,11 @@
       <c r="T55" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="56">
-      <c r="A56" s="2">
-        <v>52</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <v>593B9AB64F4E9FD436FF4BB129AB6B0B</v>
-      </c>
-      <c r="C56" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D56" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E56" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2237,21 +2057,11 @@
       <c r="T56" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="57">
-      <c r="A57" s="2">
-        <v>53</v>
-      </c>
-      <c r="B57" s="1" t="str">
-        <v>B5DFDDEB474EF39DAB8F5A9AD09D3B99</v>
-      </c>
-      <c r="C57" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D57" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E57" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -2269,21 +2079,11 @@
       <c r="T57" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="58">
-      <c r="A58" s="2">
-        <v>54</v>
-      </c>
-      <c r="B58" s="1" t="str">
-        <v>EC19B5A04084580B774DE9BC0A268A7C</v>
-      </c>
-      <c r="C58" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D58" s="2" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E58" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>

--- a/middle-to-gun/Excel/Morph_变身表.xlsx
+++ b/middle-to-gun/Excel/Morph_变身表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -44,6 +44,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,7 +71,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -83,12 +97,15 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,6 +470,21 @@
       <c r="E1" s="1" t="str">
         <v>vector3</v>
       </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="2">
       <c r="A2" s="1" t="str">
@@ -470,6 +502,21 @@
       <c r="E2" s="1" t="str">
         <v>OffsetSca</v>
       </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="3">
       <c r="A3" s="1" t="str">
@@ -487,14 +534,50 @@
       <c r="E3" s="1" t="str">
         <v>缩放偏移</v>
       </c>
-    </row>
-    <row customHeight="true" ht="21" r="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
     <row customHeight="true" ht="21" r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>EC0C8ADC459322F5DE2106B9562A90CA</v>
+        <v>C665A5E44F6F23B13103ADB63B6DB8FE</v>
       </c>
       <c r="C5" s="1" t="str">
         <v>0|0|0</v>
@@ -505,13 +588,28 @@
       <c r="E5" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="str">
-        <v>335126154CEC4A49F102238D6210F205</v>
+        <v>7EFE3FDB48F92FD44D7B9C9B4617847B</v>
       </c>
       <c r="C6" s="1" t="str">
         <v>0|0|0</v>
@@ -522,13 +620,28 @@
       <c r="E6" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="str">
-        <v>078F47E840BF64873D328A9673951309</v>
+        <v>0FCB78664DCD1BB057543DB8A067C122</v>
       </c>
       <c r="C7" s="1" t="str">
         <v>0|0|0</v>
@@ -539,13 +652,28 @@
       <c r="E7" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" t="str">
-        <v>E77FD27C4C304D5B08ADB0828DE97EF1</v>
+      <c r="B8" s="2" t="str">
+        <v>6EEEE3FE4889D23A286CC8B30701C8EE</v>
       </c>
       <c r="C8" s="1" t="str">
         <v>0|0|0</v>
@@ -556,13 +684,28 @@
       <c r="E8" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="str">
-        <v>EAB0980E49843AA01B24418DE4D34F19</v>
+        <v>EE3A158548986A567D4741AF925DEA34</v>
       </c>
       <c r="C9" s="1" t="str">
         <v>0|0|0</v>
@@ -573,13 +716,28 @@
       <c r="E9" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="str">
-        <v>3277C410430DBBAA9AAC2B91F5616546</v>
+        <v>B40762884A5A907F6FC1018C2E8185C8</v>
       </c>
       <c r="C10" s="1" t="str">
         <v>0|0|0</v>
@@ -590,13 +748,28 @@
       <c r="E10" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="11">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="str">
-        <v>7B8B31584AF072EC0D92D7835A1E6AA8</v>
+        <v>77796AE5405E9B5B173C9EA0E0131A7D</v>
       </c>
       <c r="C11" s="1" t="str">
         <v>0|0|0</v>
@@ -607,13 +780,28 @@
       <c r="E11" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="str">
-        <v>1FE95F4B4B762E305B6425B8B7726197</v>
+        <v>6CF59C074F7CD23EEEA26B8CCFFBC2C2</v>
       </c>
       <c r="C12" s="1" t="str">
         <v>0|0|0</v>
@@ -624,13 +812,28 @@
       <c r="E12" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="str">
-        <v>4342D9B34145F0F5BCE31A9C7B8782F3</v>
+        <v>B04EE94540EE3000A660AEA94FDB25D2</v>
       </c>
       <c r="C13" s="1" t="str">
         <v>0|0|0</v>
@@ -641,13 +844,28 @@
       <c r="E13" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="str">
-        <v>0FDE1CD444234AA6F8EE5AA3440430D0</v>
+        <v>471E86844D001CE4E84DA8BABEB0DDEA</v>
       </c>
       <c r="C14" s="1" t="str">
         <v>0|0|0</v>
@@ -658,13 +876,28 @@
       <c r="E14" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="str">
-        <v>CAD93AB64E3F4F0949866684D13C5858</v>
+        <v>98CDBDE94A8C79B6C5DD8E96AF07FAF7</v>
       </c>
       <c r="C15" s="1" t="str">
         <v>0|0|0</v>
@@ -675,13 +908,28 @@
       <c r="E15" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="str">
-        <v>FCE45D8E4E05E19B303A5BBE856597FB</v>
+        <v>967939744A6C3F5FB4E850A3E7B33E3B</v>
       </c>
       <c r="C16" s="1" t="str">
         <v>0|0|0</v>
@@ -692,13 +940,28 @@
       <c r="E16" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="17">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="str">
-        <v>BF55149449AAF418BE3C01B491A560FA</v>
+        <v>4F5E80FC46C55F6F7F5ED0AFCA5D414A</v>
       </c>
       <c r="C17" s="1" t="str">
         <v>0|0|0</v>
@@ -709,13 +972,28 @@
       <c r="E17" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="18">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="str">
-        <v>D44D15B6486D4C1F2F9D758B8EE82BBE</v>
+        <v>6D4B721A4E1B76493972E08A824F8AE7</v>
       </c>
       <c r="C18" s="1" t="str">
         <v>0|0|0</v>
@@ -726,13 +1004,28 @@
       <c r="E18" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="19">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="str">
-        <v>80A1CEF44600E00C7FF831A7A2FF6AD6</v>
+        <v>424A2E254F9FD0AABA1BE3B4E7992B60</v>
       </c>
       <c r="C19" s="1" t="str">
         <v>0|0|0</v>
@@ -743,13 +1036,28 @@
       <c r="E19" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="str">
-        <v>81B23DDB4CDEAFBA4B8E5F931B8CC088</v>
+        <v>AFC3939B401019F2DEE37784CC1803A5</v>
       </c>
       <c r="C20" s="1" t="str">
         <v>0|0|0</v>
@@ -760,13 +1068,28 @@
       <c r="E20" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="21">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="str">
-        <v>DE8D2C2E4C265421D3205A8CC1F59C5C</v>
+        <v>63D0E8894374EF73151267AE2CD7A6E8</v>
       </c>
       <c r="C21" s="1" t="str">
         <v>0|0|0</v>
@@ -777,13 +1100,28 @@
       <c r="E21" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="22">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="str">
-        <v>10E5F67B4B35167245EF8493F07D676B</v>
+        <v>CA3C71F24708B24B97555584A526400D</v>
       </c>
       <c r="C22" s="1" t="str">
         <v>0|0|0</v>
@@ -794,13 +1132,28 @@
       <c r="E22" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="23">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="str">
-        <v>85C00CA447692B1603D4DD9D106C44BA</v>
+        <v>473BEFA7481C557195E608A058891B5A</v>
       </c>
       <c r="C23" s="1" t="str">
         <v>0|0|0</v>
@@ -811,13 +1164,28 @@
       <c r="E23" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="24">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="str">
-        <v>9E3EF7D64077F30BA4C6EF8215666AF9</v>
+        <v>A62514214509E9BB6FFCD286F0A8CACE</v>
       </c>
       <c r="C24" s="1" t="str">
         <v>0|0|0</v>
@@ -828,13 +1196,28 @@
       <c r="E24" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="str">
-        <v>7D9116A44D451AC4567BE296AB10E5AB</v>
+        <v>7CDBD4B148DCD0CB517E88819C62FD4D</v>
       </c>
       <c r="C25" s="1" t="str">
         <v>0|0|0</v>
@@ -845,13 +1228,28 @@
       <c r="E25" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="26">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="str">
-        <v>1401A34346237AD6FADE36BDB501E17A</v>
+        <v>429C69244E35328DF8D73CA554BFE01C</v>
       </c>
       <c r="C26" s="1" t="str">
         <v>0|0|0</v>
@@ -862,13 +1260,28 @@
       <c r="E26" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="27">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="str">
-        <v>6E3C374D4AEDEA66EA83A78DAAFD3CB7</v>
+        <v>662BFCAD46B8DDB2C1F15E95DC1D71FB</v>
       </c>
       <c r="C27" s="1" t="str">
         <v>0|0|0</v>
@@ -879,13 +1292,28 @@
       <c r="E27" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="28">
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" t="str">
-        <v>AF70636342AD405BAC6490901E1E48A7</v>
+      <c r="B28" s="2" t="str">
+        <v>C7AF1DB740B957C45B589589961D4E9A</v>
       </c>
       <c r="C28" s="1" t="str">
         <v>0|0|0</v>
@@ -896,13 +1324,28 @@
       <c r="E28" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="29">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="str">
-        <v>2EB3E87248522F3ED3AD628C7FD4588F</v>
+        <v>B1C3D37445115C0FD6602D86C18F5A5E</v>
       </c>
       <c r="C29" s="1" t="str">
         <v>0|0|0</v>
@@ -913,13 +1356,28 @@
       <c r="E29" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="30">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="str">
-        <v>F667C8AB46F5FCBAB51E58B98676367B</v>
+        <v>4241E3D6474673648F132C9EE621BB2F</v>
       </c>
       <c r="C30" s="1" t="str">
         <v>0|0|0</v>
@@ -930,13 +1388,28 @@
       <c r="E30" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="31">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="str">
-        <v>E483C36F4203D16F289B6F96E17B6EBE</v>
+        <v>893BFC51454BD89A3F56B99C7D87C45D</v>
       </c>
       <c r="C31" s="1" t="str">
         <v>0|0|0</v>
@@ -947,13 +1420,28 @@
       <c r="E31" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="32">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="str">
-        <v>860ED32A4A9B1421BDF480BD37206127</v>
+        <v>C54732A548232206595D87B7BB339EF7</v>
       </c>
       <c r="C32" s="1" t="str">
         <v>0|0|0</v>
@@ -964,1754 +1452,5059 @@
       <c r="E32" s="1" t="str">
         <v>1|1|1</v>
       </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="33">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <v>EC560EA044478C3DD016BBB942E9B65D</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="34">
-      <c r="A34" s="1">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <v>7D444D4640A16323197FFA8FCDF2E41D</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="35">
-      <c r="A35" s="1">
-        <v>31</v>
-      </c>
-      <c r="B35" t="str">
-        <v>7F8C5612486B9EFF207FF79854180D1E</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="1">
-        <v>32</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <v>5682A4FA4E0DA03232DACFAE22AA0220</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="37">
-      <c r="A37" s="1">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <v>B967236D4A62DE0B9BDC45ACA618713A</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="38">
-      <c r="A38" s="1">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <v>529D2818405B01D4C68831B1D59A66E4</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="39">
-      <c r="A39" s="1">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1" t="str">
-        <v>E4546504452A29F7F97665B37DF49083</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D39" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="40">
-      <c r="A40" s="1">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1" t="str">
-        <v>F769A3ED4A29E47C0FB6928B53D7508A</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D40" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="41">
-      <c r="A41" s="1">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <v>5BCE4569426BC2E205DC0CAE9C28DCFF</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="42">
-      <c r="A42" s="1">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <v>3E9C6F8B406C15898AB1B9846DEBE83D</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="43">
-      <c r="A43" s="1">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <v>F93F66834B60109E9BCF0AB8AE205E8C</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E43" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="44">
-      <c r="A44" s="1">
-        <v>40</v>
-      </c>
-      <c r="B44" s="1" t="str">
-        <v>957F005A48A340E377B206A38D8B0BF2</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E44" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="45">
-      <c r="A45" s="1">
-        <v>41</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <v>87CCDCF1440844D76796DDAE0C2A47A1</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E45" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="46">
-      <c r="A46" s="1">
-        <v>42</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <v>171995C543F147B24337809C704C517B</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D46" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E46" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="47">
-      <c r="A47" s="1">
-        <v>43</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <v>D2152DAB4780CE011C1F75B60AD8F9B5</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D47" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E47" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="48">
-      <c r="A48" s="1">
-        <v>44</v>
-      </c>
-      <c r="B48" s="1" t="str">
-        <v>070FF554463A9C82EF1DA3A6ADA30FF5</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D48" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E48" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="49">
-      <c r="A49" s="1">
-        <v>45</v>
-      </c>
-      <c r="B49" s="1" t="str">
-        <v>C82B989B44B0F5C2593FD4BF6885CF5D</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D49" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E49" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="50">
-      <c r="A50" s="1">
-        <v>46</v>
-      </c>
-      <c r="B50" s="1" t="str">
-        <v>7F28155F4EEFF2E1B33DDDA7EEFD4AD2</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D50" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E50" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="51">
-      <c r="A51" s="1">
-        <v>47</v>
-      </c>
-      <c r="B51" s="1" t="str">
-        <v>D85C27AC4F8BB66FB668EABFE2FF9BD7</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D51" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E51" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="52">
-      <c r="A52" s="1">
-        <v>48</v>
-      </c>
-      <c r="B52" t="str">
-        <v>3688AC4D45D5EEC1E0D2279197E330BB</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D52" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E52" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="53">
-      <c r="A53" s="1">
-        <v>49</v>
-      </c>
-      <c r="B53" s="1" t="str">
-        <v>9523FD8F4D5E4060F39DE59DC439A055</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D53" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E53" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="54">
-      <c r="A54" s="1">
-        <v>50</v>
-      </c>
-      <c r="B54" t="str">
-        <v>273117F54B2A12D4B6D87584E242A9A4</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D54" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E54" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="55">
-      <c r="A55" s="1">
-        <v>51</v>
-      </c>
-      <c r="B55" t="str">
-        <v>30DB36F5483E1EED93827DBF845B2E0C</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D55" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E55" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="56">
-      <c r="A56" s="1">
-        <v>52</v>
-      </c>
-      <c r="B56" t="str">
-        <v>F58F40BE47A971AF45C94F8E774FA959</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D56" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E56" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="57">
-      <c r="A57" s="1">
-        <v>53</v>
-      </c>
-      <c r="B57" t="str">
-        <v>A872C382435C967D31F639BC792A8C7C</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D57" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E57" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="58">
-      <c r="A58" s="1">
-        <v>54</v>
-      </c>
-      <c r="B58" t="str">
-        <v>6FD710524711C2FB675409822F20C84C</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D58" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E58" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="59">
-      <c r="A59" s="1">
-        <v>55</v>
-      </c>
-      <c r="B59" t="str">
-        <v>D7FED734443084BD9CC322B2A02A8195</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D59" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E59" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="60">
-      <c r="A60" s="1">
-        <v>56</v>
-      </c>
-      <c r="B60" t="str">
-        <v>8421359249F0AE6538674FADC6196BCC</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E60" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="61">
-      <c r="A61" s="1">
-        <v>57</v>
-      </c>
-      <c r="B61" t="str">
-        <v>CEE419F24C4BD425B1221DBABC019925</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D61" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E61" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="62">
-      <c r="A62" s="1">
-        <v>58</v>
-      </c>
-      <c r="B62" t="str">
-        <v>5E2CA8A84F3B2A39B092739D18611B23</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D62" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="E62" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="1">
-        <v>59</v>
-      </c>
-      <c r="B63" t="str">
-        <v>45CC801843BCB421039107B2112267A6</v>
-      </c>
-      <c r="C63" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D63" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="E63" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="1">
-        <v>60</v>
-      </c>
-      <c r="B64" t="str">
-        <v>C9292BC84BD8123269224ABBA8B007CB</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D64" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="E64" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="1">
-        <v>61</v>
-      </c>
-      <c r="B65" t="str">
-        <v>D0C568E94DC2EAAADE0303AC1A079AB8</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D65" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="E65" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="1">
-        <v>62</v>
-      </c>
-      <c r="B66" t="str">
-        <v>9369090F4F800E92F623348B8D94270A</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D66" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="E66" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
+      <c r="Q149" s="2"/>
+      <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+      <c r="T149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+      <c r="T152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="2"/>
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="2"/>
+      <c r="T154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="2"/>
+      <c r="S157" s="2"/>
+      <c r="T157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" s="2"/>
+      <c r="R158" s="2"/>
+      <c r="S158" s="2"/>
+      <c r="T158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+      <c r="S161" s="2"/>
+      <c r="T161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
+      <c r="B170" s="2"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="1"/>
+      <c r="B178" s="2"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+      <c r="R179" s="2"/>
+      <c r="S179" s="2"/>
+      <c r="T179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+      <c r="R180" s="2"/>
+      <c r="S180" s="2"/>
+      <c r="T180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
+      <c r="B186" s="2"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+      <c r="R187" s="2"/>
+      <c r="S187" s="2"/>
+      <c r="T187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+      <c r="R188" s="2"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+      <c r="R190" s="2"/>
+      <c r="S190" s="2"/>
+      <c r="T190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
+      <c r="B191" s="2"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
+      <c r="B193" s="2"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
+      <c r="B195" s="2"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
+      <c r="B197" s="2"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
+      <c r="B198" s="2"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
+      <c r="B199" s="2"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
+      <c r="B201" s="2"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
+      <c r="B202" s="2"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
+      <c r="B204" s="2"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="2"/>
+      <c r="R204" s="2"/>
+      <c r="S204" s="2"/>
+      <c r="T204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
+      <c r="B205" s="2"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" s="1"/>
+      <c r="B206" s="2"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" s="1"/>
+      <c r="B207" s="2"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" s="1"/>
+      <c r="B208" s="2"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" s="1"/>
+      <c r="B209" s="2"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="1"/>
+      <c r="B210" s="2"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" s="1"/>
+      <c r="B211" s="2"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" s="1"/>
+      <c r="B212" s="2"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" s="1"/>
+      <c r="B213" s="2"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" s="1"/>
+      <c r="B214" s="2"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="2"/>
+      <c r="T216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" s="1"/>
+      <c r="B217" s="2"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="1"/>
+      <c r="B219" s="2"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="2"/>
+      <c r="T219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" s="1"/>
+      <c r="B220" s="2"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="2"/>
+      <c r="N220" s="2"/>
+      <c r="O220" s="2"/>
+      <c r="P220" s="2"/>
+      <c r="Q220" s="2"/>
+      <c r="R220" s="2"/>
+      <c r="S220" s="2"/>
+      <c r="T220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" s="1"/>
+      <c r="B221" s="2"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2"/>
+      <c r="R221" s="2"/>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" s="1"/>
+      <c r="B222" s="2"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="2"/>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
+      <c r="P222" s="2"/>
+      <c r="Q222" s="2"/>
+      <c r="R222" s="2"/>
+      <c r="S222" s="2"/>
+      <c r="T222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" s="1"/>
+      <c r="B223" s="2"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+      <c r="M223" s="2"/>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
+      <c r="P223" s="2"/>
+      <c r="Q223" s="2"/>
+      <c r="R223" s="2"/>
+      <c r="S223" s="2"/>
+      <c r="T223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" s="1"/>
+      <c r="B224" s="2"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="2"/>
+      <c r="M224" s="2"/>
+      <c r="N224" s="2"/>
+      <c r="O224" s="2"/>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2"/>
+      <c r="R224" s="2"/>
+      <c r="S224" s="2"/>
+      <c r="T224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" s="1"/>
+      <c r="B225" s="2"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2"/>
+      <c r="N225" s="2"/>
+      <c r="O225" s="2"/>
+      <c r="P225" s="2"/>
+      <c r="Q225" s="2"/>
+      <c r="R225" s="2"/>
+      <c r="S225" s="2"/>
+      <c r="T225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" s="1"/>
+      <c r="B226" s="2"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2"/>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" s="2"/>
+      <c r="R226" s="2"/>
+      <c r="S226" s="2"/>
+      <c r="T226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" s="1"/>
+      <c r="B227" s="2"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="2"/>
+      <c r="N227" s="2"/>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" s="1"/>
+      <c r="B228" s="2"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2"/>
+      <c r="R228" s="2"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" s="1"/>
+      <c r="B229" s="2"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2"/>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
+      <c r="Q229" s="2"/>
+      <c r="R229" s="2"/>
+      <c r="S229" s="2"/>
+      <c r="T229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" s="1"/>
+      <c r="B230" s="2"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" s="2"/>
+      <c r="R230" s="2"/>
+      <c r="S230" s="2"/>
+      <c r="T230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="2"/>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+      <c r="N235" s="2"/>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2"/>
+      <c r="S235" s="2"/>
+      <c r="T235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2"/>
+      <c r="N236" s="2"/>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" s="1"/>
+      <c r="B237" s="2"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+      <c r="M237" s="2"/>
+      <c r="N237" s="2"/>
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="1"/>
+      <c r="B238" s="2"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2"/>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" s="1"/>
+      <c r="B239" s="2"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2"/>
+      <c r="N239" s="2"/>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" s="2"/>
+      <c r="R239" s="2"/>
+      <c r="S239" s="2"/>
+      <c r="T239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" s="1"/>
+      <c r="B240" s="2"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="1"/>
+      <c r="B241" s="2"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="2"/>
+      <c r="R242" s="2"/>
+      <c r="S242" s="2"/>
+      <c r="T242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+      <c r="M243" s="2"/>
+      <c r="N243" s="2"/>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" s="2"/>
+      <c r="R243" s="2"/>
+      <c r="S243" s="2"/>
+      <c r="T243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" s="1"/>
+      <c r="B244" s="2"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
+      <c r="O244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="Q244" s="2"/>
+      <c r="R244" s="2"/>
+      <c r="S244" s="2"/>
+      <c r="T244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" s="1"/>
+      <c r="B245" s="2"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="2"/>
+      <c r="N245" s="2"/>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" s="1"/>
+      <c r="B246" s="2"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+      <c r="L246" s="2"/>
+      <c r="M246" s="2"/>
+      <c r="N246" s="2"/>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" s="2"/>
+      <c r="R246" s="2"/>
+      <c r="S246" s="2"/>
+      <c r="T246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" s="1"/>
+      <c r="B247" s="2"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+      <c r="L247" s="2"/>
+      <c r="M247" s="2"/>
+      <c r="N247" s="2"/>
+      <c r="O247" s="2"/>
+      <c r="P247" s="2"/>
+      <c r="Q247" s="2"/>
+      <c r="R247" s="2"/>
+      <c r="S247" s="2"/>
+      <c r="T247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" s="1"/>
+      <c r="B248" s="2"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="2"/>
+      <c r="K248" s="2"/>
+      <c r="L248" s="2"/>
+      <c r="M248" s="2"/>
+      <c r="N248" s="2"/>
+      <c r="O248" s="2"/>
+      <c r="P248" s="2"/>
+      <c r="Q248" s="2"/>
+      <c r="R248" s="2"/>
+      <c r="S248" s="2"/>
+      <c r="T248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" s="1"/>
+      <c r="B249" s="2"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+      <c r="M249" s="2"/>
+      <c r="N249" s="2"/>
+      <c r="O249" s="2"/>
+      <c r="P249" s="2"/>
+      <c r="Q249" s="2"/>
+      <c r="R249" s="2"/>
+      <c r="S249" s="2"/>
+      <c r="T249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" s="1"/>
+      <c r="B250" s="2"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="2"/>
+      <c r="M250" s="2"/>
+      <c r="N250" s="2"/>
+      <c r="O250" s="2"/>
+      <c r="P250" s="2"/>
+      <c r="Q250" s="2"/>
+      <c r="R250" s="2"/>
+      <c r="S250" s="2"/>
+      <c r="T250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" s="1"/>
+      <c r="B251" s="2"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="2"/>
+      <c r="M251" s="2"/>
+      <c r="N251" s="2"/>
+      <c r="O251" s="2"/>
+      <c r="P251" s="2"/>
+      <c r="Q251" s="2"/>
+      <c r="R251" s="2"/>
+      <c r="S251" s="2"/>
+      <c r="T251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" s="1"/>
+      <c r="B252" s="2"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="2"/>
+      <c r="M252" s="2"/>
+      <c r="N252" s="2"/>
+      <c r="O252" s="2"/>
+      <c r="P252" s="2"/>
+      <c r="Q252" s="2"/>
+      <c r="R252" s="2"/>
+      <c r="S252" s="2"/>
+      <c r="T252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" s="1"/>
+      <c r="B253" s="2"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+      <c r="L253" s="2"/>
+      <c r="M253" s="2"/>
+      <c r="N253" s="2"/>
+      <c r="O253" s="2"/>
+      <c r="P253" s="2"/>
+      <c r="Q253" s="2"/>
+      <c r="R253" s="2"/>
+      <c r="S253" s="2"/>
+      <c r="T253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" s="1"/>
+      <c r="B254" s="2"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+      <c r="M254" s="2"/>
+      <c r="N254" s="2"/>
+      <c r="O254" s="2"/>
+      <c r="P254" s="2"/>
+      <c r="Q254" s="2"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="2"/>
+      <c r="T254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" s="1"/>
+      <c r="B255" s="2"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+      <c r="L255" s="2"/>
+      <c r="M255" s="2"/>
+      <c r="N255" s="2"/>
+      <c r="O255" s="2"/>
+      <c r="P255" s="2"/>
+      <c r="Q255" s="2"/>
+      <c r="R255" s="2"/>
+      <c r="S255" s="2"/>
+      <c r="T255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" s="1"/>
+      <c r="B256" s="2"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+      <c r="L256" s="2"/>
+      <c r="M256" s="2"/>
+      <c r="N256" s="2"/>
+      <c r="O256" s="2"/>
+      <c r="P256" s="2"/>
+      <c r="Q256" s="2"/>
+      <c r="R256" s="2"/>
+      <c r="S256" s="2"/>
+      <c r="T256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" s="1"/>
+      <c r="B257" s="2"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
+      <c r="L257" s="2"/>
+      <c r="M257" s="2"/>
+      <c r="N257" s="2"/>
+      <c r="O257" s="2"/>
+      <c r="P257" s="2"/>
+      <c r="Q257" s="2"/>
+      <c r="R257" s="2"/>
+      <c r="S257" s="2"/>
+      <c r="T257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" s="1"/>
+      <c r="B258" s="2"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2"/>
+      <c r="L258" s="2"/>
+      <c r="M258" s="2"/>
+      <c r="N258" s="2"/>
+      <c r="O258" s="2"/>
+      <c r="P258" s="2"/>
+      <c r="Q258" s="2"/>
+      <c r="R258" s="2"/>
+      <c r="S258" s="2"/>
+      <c r="T258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" s="1"/>
+      <c r="B259" s="2"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="2"/>
+      <c r="L259" s="2"/>
+      <c r="M259" s="2"/>
+      <c r="N259" s="2"/>
+      <c r="O259" s="2"/>
+      <c r="P259" s="2"/>
+      <c r="Q259" s="2"/>
+      <c r="R259" s="2"/>
+      <c r="S259" s="2"/>
+      <c r="T259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" s="1"/>
+      <c r="B260" s="2"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
+      <c r="K260" s="2"/>
+      <c r="L260" s="2"/>
+      <c r="M260" s="2"/>
+      <c r="N260" s="2"/>
+      <c r="O260" s="2"/>
+      <c r="P260" s="2"/>
+      <c r="Q260" s="2"/>
+      <c r="R260" s="2"/>
+      <c r="S260" s="2"/>
+      <c r="T260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" s="1"/>
+      <c r="B261" s="2"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="2"/>
+      <c r="J261" s="2"/>
+      <c r="K261" s="2"/>
+      <c r="L261" s="2"/>
+      <c r="M261" s="2"/>
+      <c r="N261" s="2"/>
+      <c r="O261" s="2"/>
+      <c r="P261" s="2"/>
+      <c r="Q261" s="2"/>
+      <c r="R261" s="2"/>
+      <c r="S261" s="2"/>
+      <c r="T261" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/middle-to-gun/Excel/Morph_变身表.xlsx
+++ b/middle-to-gun/Excel/Morph_变身表.xlsx
@@ -34,10 +34,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,7 +71,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -83,12 +97,15 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>20673</v>
+        <v>34287</v>
       </c>
       <c r="C5" s="1" t="str">
         <v>0|0|0</v>
@@ -592,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>20760</v>
+        <v>36101</v>
       </c>
       <c r="C6" s="1" t="str">
         <v>0|0|0</v>
@@ -624,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>20780</v>
+        <v>36104</v>
       </c>
       <c r="C7" s="1" t="str">
         <v>0|0|0</v>
@@ -656,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>20867</v>
+        <v>36307</v>
       </c>
       <c r="C8" s="1" t="str">
         <v>0|0|0</v>
@@ -688,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>20900</v>
+        <v>43382</v>
       </c>
       <c r="C9" s="1" t="str">
         <v>0|0|0</v>
@@ -699,7 +716,7 @@
       <c r="E9" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -720,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>20921</v>
+        <v>43696</v>
       </c>
       <c r="C10" s="1" t="str">
         <v>0|0|0</v>
@@ -752,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>20953</v>
+        <v>43702</v>
       </c>
       <c r="C11" s="1" t="str">
         <v>0|0|0</v>
@@ -784,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>20980</v>
+        <v>43704</v>
       </c>
       <c r="C12" s="1" t="str">
         <v>0|0|0</v>
@@ -816,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>21009</v>
+        <v>43726</v>
       </c>
       <c r="C13" s="1" t="str">
         <v>0|0|0</v>
@@ -844,11 +861,21 @@
       <c r="T13" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44978</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -866,11 +893,21 @@
       <c r="T14" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>68306</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -888,11 +925,21 @@
       <c r="T15" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>95676</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -910,11 +957,21 @@
       <c r="T16" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>88958</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -932,11 +989,21 @@
       <c r="T17" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>122716</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -954,11 +1021,21 @@
       <c r="T18" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>122720</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -976,11 +1053,21 @@
       <c r="T19" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>122726</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -998,11 +1085,21 @@
       <c r="T20" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>153110</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1020,11 +1117,21 @@
       <c r="T21" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>152136</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1042,11 +1149,21 @@
       <c r="T22" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>155696</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1064,11 +1181,21 @@
       <c r="T23" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>155702</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1086,11 +1213,21 @@
       <c r="T24" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>168680</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1108,11 +1245,21 @@
       <c r="T25" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>199351</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1130,11 +1277,21 @@
       <c r="T26" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>218325</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1152,11 +1309,21 @@
       <c r="T27" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>218326</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1174,11 +1341,21 @@
       <c r="T28" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="29">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>222534</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1196,11 +1373,21 @@
       <c r="T29" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>221722</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1218,11 +1405,21 @@
       <c r="T30" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>223966</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1240,11 +1437,21 @@
       <c r="T31" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>226213</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1261,6 +1468,4456 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>226214</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>226650</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>226826</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>321770</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1">
+        <v>327072</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172" s="1"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="T190" s="1"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/middle-to-gun/Excel/Morph_变身表.xlsx
+++ b/middle-to-gun/Excel/Morph_变身表.xlsx
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>34287</v>
+        <v>20686</v>
       </c>
       <c r="C5" s="1" t="str">
         <v>0|0|0</v>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>36101</v>
+        <v>20689</v>
       </c>
       <c r="C6" s="1" t="str">
         <v>0|0|0</v>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>36104</v>
+        <v>20693</v>
       </c>
       <c r="C7" s="1" t="str">
         <v>0|0|0</v>
@@ -673,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>36307</v>
+        <v>20707</v>
       </c>
       <c r="C8" s="1" t="str">
         <v>0|0|0</v>
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>43382</v>
+        <v>20741</v>
       </c>
       <c r="C9" s="1" t="str">
         <v>0|0|0</v>
@@ -737,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>43696</v>
+        <v>20799</v>
       </c>
       <c r="C10" s="1" t="str">
         <v>0|0|0</v>
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>43702</v>
+        <v>20910</v>
       </c>
       <c r="C11" s="1" t="str">
         <v>0|0|0</v>
@@ -801,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>43704</v>
+        <v>20957</v>
       </c>
       <c r="C12" s="1" t="str">
         <v>0|0|0</v>
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>43726</v>
+        <v>21007</v>
       </c>
       <c r="C13" s="1" t="str">
         <v>0|0|0</v>
@@ -865,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>44978</v>
+        <v>21034</v>
       </c>
       <c r="C14" s="1" t="str">
         <v>0|0|0</v>
@@ -897,7 +897,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>68306</v>
+        <v>21037</v>
       </c>
       <c r="C15" s="1" t="str">
         <v>0|0|0</v>
@@ -906,7 +906,7 @@
         <v>0|0|-90</v>
       </c>
       <c r="E15" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.3|0.3|0.3</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -929,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>95676</v>
+        <v>22879</v>
       </c>
       <c r="C16" s="1" t="str">
         <v>0|0|0</v>
@@ -961,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>88958</v>
+        <v>22881</v>
       </c>
       <c r="C17" s="1" t="str">
         <v>0|0|0</v>
@@ -993,7 +993,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>122716</v>
+        <v>22905</v>
       </c>
       <c r="C18" s="1" t="str">
         <v>0|0|0</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>122720</v>
+        <v>22906</v>
       </c>
       <c r="C19" s="1" t="str">
         <v>0|0|0</v>
@@ -1057,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>122726</v>
+        <v>22907</v>
       </c>
       <c r="C20" s="1" t="str">
         <v>0|0|0</v>
@@ -1089,7 +1089,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>153110</v>
+        <v>22913</v>
       </c>
       <c r="C21" s="1" t="str">
         <v>0|0|0</v>
@@ -1121,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>152136</v>
+        <v>22921</v>
       </c>
       <c r="C22" s="1" t="str">
         <v>0|0|0</v>
@@ -1153,7 +1153,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1">
-        <v>155696</v>
+        <v>22926</v>
       </c>
       <c r="C23" s="1" t="str">
         <v>0|0|0</v>
@@ -1185,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>155702</v>
+        <v>22951</v>
       </c>
       <c r="C24" s="1" t="str">
         <v>0|0|0</v>
@@ -1217,7 +1217,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>168680</v>
+        <v>22940</v>
       </c>
       <c r="C25" s="1" t="str">
         <v>0|0|0</v>
@@ -1249,7 +1249,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1">
-        <v>199351</v>
+        <v>22972</v>
       </c>
       <c r="C26" s="1" t="str">
         <v>0|0|0</v>
@@ -1281,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>218325</v>
+        <v>22966</v>
       </c>
       <c r="C27" s="1" t="str">
         <v>0|0|0</v>
@@ -1313,7 +1313,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1">
-        <v>218326</v>
+        <v>22969</v>
       </c>
       <c r="C28" s="1" t="str">
         <v>0|0|0</v>
@@ -1345,7 +1345,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1">
-        <v>222534</v>
+        <v>22986</v>
       </c>
       <c r="C29" s="1" t="str">
         <v>0|0|0</v>
@@ -1377,7 +1377,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>221722</v>
+        <v>22981</v>
       </c>
       <c r="C30" s="1" t="str">
         <v>0|0|0</v>
@@ -1409,7 +1409,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="1">
-        <v>223966</v>
+        <v>23001</v>
       </c>
       <c r="C31" s="1" t="str">
         <v>0|0|0</v>
@@ -1441,7 +1441,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>226213</v>
+        <v>23018</v>
       </c>
       <c r="C32" s="1" t="str">
         <v>0|0|0</v>
@@ -1473,7 +1473,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="1">
-        <v>226214</v>
+        <v>23020</v>
       </c>
       <c r="C33" s="1" t="str">
         <v>0|0|0</v>
@@ -1505,7 +1505,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="1">
-        <v>226650</v>
+        <v>23043</v>
       </c>
       <c r="C34" s="1" t="str">
         <v>0|0|0</v>
@@ -1537,7 +1537,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="1">
-        <v>226826</v>
+        <v>23071</v>
       </c>
       <c r="C35" s="1" t="str">
         <v>0|0|0</v>
@@ -1569,7 +1569,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="1">
-        <v>321770</v>
+        <v>23072</v>
       </c>
       <c r="C36" s="1" t="str">
         <v>0|0|0</v>
@@ -1601,7 +1601,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="1">
-        <v>327072</v>
+        <v>23102</v>
       </c>
       <c r="C37" s="1" t="str">
         <v>0|0|0</v>

--- a/middle-to-gun/Excel/Morph_变身表.xlsx
+++ b/middle-to-gun/Excel/Morph_变身表.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowWidth="23040" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,53 +27,552 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="55">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>AssetId</t>
+  </si>
+  <si>
+    <t>OffsetPos</t>
+  </si>
+  <si>
+    <t>OffsetRot</t>
+  </si>
+  <si>
+    <t>OffsetSca</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>资源ID</t>
+  </si>
+  <si>
+    <t>位置偏移</t>
+  </si>
+  <si>
+    <t>旋转偏移</t>
+  </si>
+  <si>
+    <t>缩放偏移</t>
+  </si>
+  <si>
+    <t>C665A5E44F6F23B13103ADB63B6DB8FE</t>
+  </si>
+  <si>
+    <t>0|0|0</t>
+  </si>
+  <si>
+    <t>0|0|-90</t>
+  </si>
+  <si>
+    <t>1|1|1</t>
+  </si>
+  <si>
+    <t>7EFE3FDB48F92FD44D7B9C9B4617847B</t>
+  </si>
+  <si>
+    <t>0FCB78664DCD1BB057543DB8A067C122</t>
+  </si>
+  <si>
+    <t>6EEEE3FE4889D23A286CC8B30701C8EE</t>
+  </si>
+  <si>
+    <t>EE3A158548986A567D4741AF925DEA34</t>
+  </si>
+  <si>
+    <t>B40762884A5A907F6FC1018C2E8185C8</t>
+  </si>
+  <si>
+    <t>77796AE5405E9B5B173C9EA0E0131A7D</t>
+  </si>
+  <si>
+    <t>6CF59C074F7CD23EEEA26B8CCFFBC2C2</t>
+  </si>
+  <si>
+    <t>B04EE94540EE3000A660AEA94FDB25D2</t>
+  </si>
+  <si>
+    <t>471E86844D001CE4E84DA8BABEB0DDEA</t>
+  </si>
+  <si>
+    <t>98CDBDE94A8C79B6C5DD8E96AF07FAF7</t>
+  </si>
+  <si>
+    <t>967939744A6C3F5FB4E850A3E7B33E3B</t>
+  </si>
+  <si>
+    <t>4F5E80FC46C55F6F7F5ED0AFCA5D414A</t>
+  </si>
+  <si>
+    <t>6D4B721A4E1B76493972E08A824F8AE7</t>
+  </si>
+  <si>
+    <t>424A2E254F9FD0AABA1BE3B4E7992B60</t>
+  </si>
+  <si>
+    <t>AFC3939B401019F2DEE37784CC1803A5</t>
+  </si>
+  <si>
+    <t>63D0E8894374EF73151267AE2CD7A6E8</t>
+  </si>
+  <si>
+    <t>CA3C71F24708B24B97555584A526400D</t>
+  </si>
+  <si>
+    <t>473BEFA7481C557195E608A058891B5A</t>
+  </si>
+  <si>
+    <t>A62514214509E9BB6FFCD286F0A8CACE</t>
+  </si>
+  <si>
+    <t>7CDBD4B148DCD0CB517E88819C62FD4D</t>
+  </si>
+  <si>
+    <t>429C69244E35328DF8D73CA554BFE01C</t>
+  </si>
+  <si>
+    <t>662BFCAD46B8DDB2C1F15E95DC1D71FB</t>
+  </si>
+  <si>
+    <t>C7AF1DB740B957C45B589589961D4E9A</t>
+  </si>
+  <si>
+    <t>B1C3D37445115C0FD6602D86C18F5A5E</t>
+  </si>
+  <si>
+    <t>4241E3D6474673648F132C9EE621BB2F</t>
+  </si>
+  <si>
+    <t>893BFC51454BD89A3F56B99C7D87C45D</t>
+  </si>
+  <si>
+    <t>C54732A548232206595D87B7BB339EF7</t>
+  </si>
+  <si>
+    <t>7B07E44B468B61C5618A599240037492</t>
+  </si>
+  <si>
+    <t>FA4C79AE412B67C2D02B5C8ABFD6A648</t>
+  </si>
+  <si>
+    <t>B22039F941FFA26BC319D784637C0835</t>
+  </si>
+  <si>
+    <t>36A8FDF445016445175EAB94DF5ECB2D</t>
+  </si>
+  <si>
+    <t>874AD10242ADB2FB8F99F0A7CFEDFD92</t>
+  </si>
+  <si>
+    <t>5|5|5</t>
+  </si>
+  <si>
+    <t>AC6DA72A418140BECDB4DB959200750D</t>
+  </si>
+  <si>
+    <t>0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>FB2E466B4DBEB0D3DA22C9AFDD2D0AAD</t>
+  </si>
+  <si>
+    <t>5E9F896F4292738E09AFC6A7290FDA43</t>
+  </si>
+  <si>
+    <t>1E47FB6B4F4DCED75E97CB83424EC32F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -80,45 +581,317 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -167,7 +940,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -200,26 +973,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -252,23 +1008,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,65 +1149,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T261"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col min="1" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>vector3</v>
+    <row r="1" ht="21" customHeight="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -486,21 +1200,21 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>AssetId</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>OffsetPos</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>OffsetRot</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>OffsetSca</v>
+    <row r="2" ht="21" customHeight="1" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -518,21 +1232,21 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="1" t="str">
-        <v>唯一ID</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>资源ID</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>位置偏移</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>旋转偏移</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>缩放偏移</v>
+    <row r="3" ht="21" customHeight="1" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -550,7 +1264,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row r="4" ht="21" customHeight="1" spans="1:20">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -572,21 +1286,21 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row r="5" ht="21" customHeight="1" spans="1:20">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <v>C665A5E44F6F23B13103ADB63B6DB8FE</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -604,21 +1318,21 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row r="6" ht="21" customHeight="1" spans="1:20">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <v>7EFE3FDB48F92FD44D7B9C9B4617847B</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -636,21 +1350,21 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row r="7" ht="21" customHeight="1" spans="1:20">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v>0FCB78664DCD1BB057543DB8A067C122</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -668,21 +1382,21 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row r="8" ht="21" customHeight="1" spans="1:20">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>6EEEE3FE4889D23A286CC8B30701C8EE</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -700,21 +1414,21 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row r="9" ht="21" customHeight="1" spans="1:20">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <v>EE3A158548986A567D4741AF925DEA34</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -732,21 +1446,21 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row r="10" ht="21" customHeight="1" spans="1:20">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <v>B40762884A5A907F6FC1018C2E8185C8</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -764,21 +1478,21 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row r="11" ht="21" customHeight="1" spans="1:20">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <v>77796AE5405E9B5B173C9EA0E0131A7D</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -796,21 +1510,21 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row r="12" ht="21" customHeight="1" spans="1:20">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <v>6CF59C074F7CD23EEEA26B8CCFFBC2C2</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -828,21 +1542,21 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row r="13" ht="21" customHeight="1" spans="1:20">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <v>B04EE94540EE3000A660AEA94FDB25D2</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -860,21 +1574,21 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row r="14" ht="21" customHeight="1" spans="1:20">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <v>471E86844D001CE4E84DA8BABEB0DDEA</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -892,21 +1606,21 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row r="15" ht="21" customHeight="1" spans="1:20">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <v>98CDBDE94A8C79B6C5DD8E96AF07FAF7</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -924,21 +1638,21 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row r="16" ht="21" customHeight="1" spans="1:20">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <v>967939744A6C3F5FB4E850A3E7B33E3B</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -956,21 +1670,21 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row r="17" ht="21" customHeight="1" spans="1:20">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="str">
-        <v>4F5E80FC46C55F6F7F5ED0AFCA5D414A</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -988,21 +1702,21 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row r="18" ht="21" customHeight="1" spans="1:20">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="str">
-        <v>6D4B721A4E1B76493972E08A824F8AE7</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1020,21 +1734,21 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row r="19" ht="21" customHeight="1" spans="1:20">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="str">
-        <v>424A2E254F9FD0AABA1BE3B4E7992B60</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1052,21 +1766,21 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row r="20" ht="21" customHeight="1" spans="1:20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="str">
-        <v>AFC3939B401019F2DEE37784CC1803A5</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1084,21 +1798,21 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row r="21" ht="21" customHeight="1" spans="1:20">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="str">
-        <v>63D0E8894374EF73151267AE2CD7A6E8</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1116,21 +1830,21 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row r="22" ht="21" customHeight="1" spans="1:20">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="str">
-        <v>CA3C71F24708B24B97555584A526400D</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1148,21 +1862,21 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row r="23" ht="21" customHeight="1" spans="1:20">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="str">
-        <v>473BEFA7481C557195E608A058891B5A</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1180,21 +1894,21 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row r="24" ht="21" customHeight="1" spans="1:20">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="str">
-        <v>A62514214509E9BB6FFCD286F0A8CACE</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1212,21 +1926,21 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row r="25" ht="21" customHeight="1" spans="1:20">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="str">
-        <v>7CDBD4B148DCD0CB517E88819C62FD4D</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1244,21 +1958,21 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row r="26" ht="21" customHeight="1" spans="1:20">
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="str">
-        <v>429C69244E35328DF8D73CA554BFE01C</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1276,21 +1990,21 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row r="27" ht="21" customHeight="1" spans="1:20">
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="str">
-        <v>662BFCAD46B8DDB2C1F15E95DC1D71FB</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1308,21 +2022,21 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row r="28" ht="21" customHeight="1" spans="1:20">
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="str">
-        <v>C7AF1DB740B957C45B589589961D4E9A</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1340,21 +2054,21 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row r="29" ht="21" customHeight="1" spans="1:20">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="str">
-        <v>B1C3D37445115C0FD6602D86C18F5A5E</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1372,21 +2086,21 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row r="30" ht="21" customHeight="1" spans="1:20">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="str">
-        <v>4241E3D6474673648F132C9EE621BB2F</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E30" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1404,21 +2118,21 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row r="31" ht="21" customHeight="1" spans="1:20">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="str">
-        <v>893BFC51454BD89A3F56B99C7D87C45D</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1436,21 +2150,21 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row r="32" ht="21" customHeight="1" spans="1:20">
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="str">
-        <v>C54732A548232206595D87B7BB339EF7</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <v>1|1|1</v>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1468,12 +2182,22 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+    <row r="33" ht="21" customHeight="1" spans="1:20">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1490,12 +2214,22 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+    <row r="34" ht="21" customHeight="1" spans="1:20">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1512,12 +2246,22 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+    <row r="35" ht="21" customHeight="1" spans="1:20">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1534,12 +2278,22 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+    <row r="36" ht="21" customHeight="1" spans="1:20">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1556,12 +2310,22 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+    <row r="37" ht="21" customHeight="1" spans="1:20">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1578,12 +2342,22 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="38">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+    <row r="38" ht="21" customHeight="1" spans="1:20">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1600,12 +2374,22 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="39">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+    <row r="39" ht="21" customHeight="1" spans="1:20">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1622,12 +2406,22 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+    <row r="40" ht="21" customHeight="1" spans="1:20">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1644,12 +2438,22 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="41">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+    <row r="41" ht="21" customHeight="1" spans="1:20">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1666,7 +2470,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="42">
+    <row r="42" ht="21" customHeight="1" spans="1:20">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1688,7 +2492,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="43">
+    <row r="43" ht="21" customHeight="1" spans="1:20">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1710,7 +2514,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="44">
+    <row r="44" ht="21" customHeight="1" spans="1:20">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1732,7 +2536,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="45">
+    <row r="45" ht="21" customHeight="1" spans="1:20">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1754,7 +2558,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="46">
+    <row r="46" ht="21" customHeight="1" spans="1:20">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1776,7 +2580,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="47">
+    <row r="47" ht="21" customHeight="1" spans="1:20">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1798,7 +2602,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="48">
+    <row r="48" ht="21" customHeight="1" spans="1:20">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1820,7 +2624,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="49">
+    <row r="49" ht="21" customHeight="1" spans="1:20">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1842,7 +2646,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="50">
+    <row r="50" ht="21" customHeight="1" spans="1:20">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1864,7 +2668,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="51">
+    <row r="51" ht="21" customHeight="1" spans="1:20">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1886,7 +2690,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="52">
+    <row r="52" ht="21" customHeight="1" spans="1:20">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1908,7 +2712,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="53">
+    <row r="53" ht="21" customHeight="1" spans="1:20">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1930,7 +2734,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="54">
+    <row r="54" ht="21" customHeight="1" spans="1:20">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1952,7 +2756,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="55">
+    <row r="55" ht="21" customHeight="1" spans="1:20">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1974,7 +2778,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="56">
+    <row r="56" ht="21" customHeight="1" spans="1:20">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1996,7 +2800,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="57">
+    <row r="57" ht="21" customHeight="1" spans="1:20">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -2018,7 +2822,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="58">
+    <row r="58" ht="21" customHeight="1" spans="1:20">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -2040,7 +2844,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="59">
+    <row r="59" ht="21" customHeight="1" spans="1:20">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -2062,7 +2866,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="60">
+    <row r="60" ht="21" customHeight="1" spans="1:20">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -2084,7 +2888,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="61">
+    <row r="61" ht="21" customHeight="1" spans="1:20">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -2106,7 +2910,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="62">
+    <row r="62" ht="21" customHeight="1" spans="1:20">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -2128,7 +2932,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2150,7 +2954,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2172,7 +2976,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2194,7 +2998,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2216,7 +3020,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2238,7 +3042,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2260,7 +3064,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2282,7 +3086,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2304,7 +3108,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2326,7 +3130,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2348,7 +3152,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2370,7 +3174,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2392,7 +3196,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2414,7 +3218,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2436,7 +3240,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2458,7 +3262,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2480,7 +3284,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2502,7 +3306,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2524,7 +3328,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2546,7 +3350,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2568,7 +3372,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2590,7 +3394,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2612,7 +3416,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2634,7 +3438,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2656,7 +3460,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2678,7 +3482,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2700,7 +3504,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2722,7 +3526,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2744,7 +3548,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2766,7 +3570,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2788,7 +3592,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2810,7 +3614,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2832,7 +3636,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2854,7 +3658,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2876,7 +3680,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2898,7 +3702,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2920,7 +3724,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2942,7 +3746,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2964,7 +3768,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2986,7 +3790,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -3008,7 +3812,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -3030,7 +3834,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -3052,7 +3856,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -3074,7 +3878,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3096,7 +3900,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3118,7 +3922,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3140,7 +3944,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3162,7 +3966,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3184,7 +3988,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3206,7 +4010,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3228,7 +4032,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3250,7 +4054,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3272,7 +4076,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3294,7 +4098,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3316,7 +4120,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3338,7 +4142,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3360,7 +4164,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3382,7 +4186,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3404,7 +4208,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3426,7 +4230,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3448,7 +4252,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3470,7 +4274,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3492,7 +4296,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3514,7 +4318,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3536,7 +4340,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3558,7 +4362,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3580,7 +4384,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3602,7 +4406,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3624,7 +4428,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3646,7 +4450,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3668,7 +4472,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3690,7 +4494,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3712,7 +4516,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3734,7 +4538,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3756,7 +4560,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3778,7 +4582,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3800,7 +4604,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3822,7 +4626,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3844,7 +4648,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3866,7 +4670,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3888,7 +4692,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3910,7 +4714,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3932,7 +4736,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3954,7 +4758,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3976,7 +4780,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3998,7 +4802,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -4020,7 +4824,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -4042,7 +4846,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -4064,7 +4868,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4086,7 +4890,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -4108,7 +4912,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -4130,7 +4934,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4152,7 +4956,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4174,7 +4978,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4196,7 +5000,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4218,7 +5022,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4240,7 +5044,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4262,7 +5066,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4284,7 +5088,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4306,7 +5110,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4328,7 +5132,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4350,7 +5154,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4372,7 +5176,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4394,7 +5198,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4416,7 +5220,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4438,7 +5242,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4460,7 +5264,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4482,7 +5286,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4504,7 +5308,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4526,7 +5330,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4548,7 +5352,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4570,7 +5374,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4592,7 +5396,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4614,7 +5418,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4636,7 +5440,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4658,7 +5462,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4680,7 +5484,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4702,7 +5506,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4724,7 +5528,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4746,7 +5550,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4768,7 +5572,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4790,7 +5594,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4812,7 +5616,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4834,7 +5638,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4856,7 +5660,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4878,7 +5682,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4900,7 +5704,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4922,7 +5726,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4944,7 +5748,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4966,7 +5770,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4988,7 +5792,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -5010,7 +5814,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -5032,7 +5836,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -5054,7 +5858,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -5076,7 +5880,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -5098,7 +5902,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -5120,7 +5924,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -5142,7 +5946,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5164,7 +5968,7 @@
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:20">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
@@ -5186,7 +5990,7 @@
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:20">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
@@ -5208,7 +6012,7 @@
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:20">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
@@ -5230,7 +6034,7 @@
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:20">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
@@ -5252,7 +6056,7 @@
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:20">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
@@ -5274,7 +6078,7 @@
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:20">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
@@ -5296,7 +6100,7 @@
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:20">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
@@ -5318,7 +6122,7 @@
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:20">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
@@ -5340,7 +6144,7 @@
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:20">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
@@ -5362,7 +6166,7 @@
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:20">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
@@ -5384,7 +6188,7 @@
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:20">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
@@ -5406,7 +6210,7 @@
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:20">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
@@ -5428,7 +6232,7 @@
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:20">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
@@ -5450,7 +6254,7 @@
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:20">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
@@ -5472,7 +6276,7 @@
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:20">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
@@ -5494,7 +6298,7 @@
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:20">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
@@ -5516,7 +6320,7 @@
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:20">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
@@ -5538,7 +6342,7 @@
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:20">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
@@ -5560,7 +6364,7 @@
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:20">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
@@ -5582,7 +6386,7 @@
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:20">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
@@ -5604,7 +6408,7 @@
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:20">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
@@ -5626,7 +6430,7 @@
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:20">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
@@ -5648,7 +6452,7 @@
       <c r="S222" s="2"/>
       <c r="T222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:20">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
@@ -5670,7 +6474,7 @@
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:20">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
@@ -5692,7 +6496,7 @@
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:20">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
@@ -5714,7 +6518,7 @@
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:20">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
@@ -5736,7 +6540,7 @@
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:20">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
@@ -5758,7 +6562,7 @@
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:20">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
@@ -5780,7 +6584,7 @@
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:20">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
@@ -5802,7 +6606,7 @@
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:20">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
@@ -5824,7 +6628,7 @@
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:20">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
@@ -5846,7 +6650,7 @@
       <c r="S231" s="2"/>
       <c r="T231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:20">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
@@ -5868,7 +6672,7 @@
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:20">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
@@ -5890,7 +6694,7 @@
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:20">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
@@ -5912,7 +6716,7 @@
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:20">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
@@ -5934,7 +6738,7 @@
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:20">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
@@ -5956,7 +6760,7 @@
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:20">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1"/>
@@ -5978,7 +6782,7 @@
       <c r="S237" s="2"/>
       <c r="T237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:20">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1"/>
@@ -6000,7 +6804,7 @@
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:20">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1"/>
@@ -6022,7 +6826,7 @@
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:20">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="1"/>
@@ -6044,7 +6848,7 @@
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:20">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="1"/>
@@ -6066,7 +6870,7 @@
       <c r="S241" s="2"/>
       <c r="T241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:20">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="1"/>
@@ -6088,7 +6892,7 @@
       <c r="S242" s="2"/>
       <c r="T242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:20">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1"/>
@@ -6110,7 +6914,7 @@
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:20">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="1"/>
@@ -6132,7 +6936,7 @@
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:20">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="1"/>
@@ -6154,7 +6958,7 @@
       <c r="S245" s="2"/>
       <c r="T245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:20">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="1"/>
@@ -6176,7 +6980,7 @@
       <c r="S246" s="2"/>
       <c r="T246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:20">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="1"/>
@@ -6198,7 +7002,7 @@
       <c r="S247" s="2"/>
       <c r="T247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:20">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="1"/>
@@ -6220,7 +7024,7 @@
       <c r="S248" s="2"/>
       <c r="T248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:20">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="1"/>
@@ -6242,7 +7046,7 @@
       <c r="S249" s="2"/>
       <c r="T249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:20">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="1"/>
@@ -6264,7 +7068,7 @@
       <c r="S250" s="2"/>
       <c r="T250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:20">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="1"/>
@@ -6286,7 +7090,7 @@
       <c r="S251" s="2"/>
       <c r="T251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:20">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="1"/>
@@ -6308,7 +7112,7 @@
       <c r="S252" s="2"/>
       <c r="T252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:20">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="1"/>
@@ -6330,7 +7134,7 @@
       <c r="S253" s="2"/>
       <c r="T253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:20">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="1"/>
@@ -6352,7 +7156,7 @@
       <c r="S254" s="2"/>
       <c r="T254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:20">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="1"/>
@@ -6374,7 +7178,7 @@
       <c r="S255" s="2"/>
       <c r="T255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:20">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="1"/>
@@ -6396,7 +7200,7 @@
       <c r="S256" s="2"/>
       <c r="T256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:20">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="1"/>
@@ -6418,7 +7222,7 @@
       <c r="S257" s="2"/>
       <c r="T257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:20">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="1"/>
@@ -6440,7 +7244,7 @@
       <c r="S258" s="2"/>
       <c r="T258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:20">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1"/>
@@ -6462,7 +7266,7 @@
       <c r="S259" s="2"/>
       <c r="T259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:20">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="1"/>
@@ -6484,7 +7288,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:20">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="1"/>
@@ -6507,6 +7311,7 @@
       <c r="T261" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>